--- a/500all/speech_level/speeches_CHRG-114hhrg93531.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93531.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412283</t>
   </si>
   <si>
-    <t>Duncan Hunter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hunter. The subcommittee will come to order. The subcommittee is meeting today to hear testimony on the President's fiscal year 2016 budget request from the leaders of the Coast Guard, the Maritime Administration, and the Federal Maritime Commission.    This is our first hearing of the new Congress, so I want to take a moment and welcome back Ranking Member Garamendi, who will be here shortly, and thank him for working with me so well in the last Congress. I also want to welcome the new members of the subcommittee. I look forward to working with each of you over the next few years. We have two new members over here, on my right, and none on the other side.    The President sent Congress a budget that would increase spending by nearly $75 billion over the fiscal year 2016 spending cap. As a result, most Federal agencies are slated to receive generous increases in spending over current levels, including a nearly 20-percent increase for the Maritime Administration and a 7-percent increase for the Federal Maritime Commission. Yet, somehow, even with an additional $75 billion, the President still proposes to cut funding for the Coast Guard, this time by 4 percent below the current level.    The request would slash the Coast Guard's acquisition budget by 26 percent. The proposed level is at least $1 billion less than what is required to sustain the acquisition program of record. It will severely undermine efforts to recapitalize the Service's aging and failing legacy assets, increase acquisition costs for taxpayers, and seriously degrade mission effectiveness.    For the fourth year in a row, the administration is playing a reckless game. They propose a budget that cuts funding for the Coast Guard so they can pay for increases at other agencies, betting that Congress will somehow restore the millions of dollars needed to sustain Coast Guard acquisitions and frontline operations. Quite frankly, I'm getting tired of playing this game. Congress is running out of quarters. If the President is going to continue to propose these cuts year after year, he needs to tell us how he intends to rescope the missions of the Coast Guard to reflect his reduced budgets.    This is the first time Admiral Zukunft and Master Chief Cantrell appear before us. I want to commend both of you for your leadership and tremendous service to our Nation. I fully understand the situation they've been put in with this budget and I appreciate their candor in describing what these cuts will mean for the ability of the Service to successfully complete its missions.    I also understand the situation you face on Saturday if Congress does not act on a fiscal year 2015 budget for the Department of Homeland Security. I know there will be a lot of questions about the impact a shutdown or a CR may have on the Coast Guard, and I know you will answer them candidly. However, I want to remind everyone that the House passed a bill. It is now up to the Senate to act. Unfortunately, the Senate minority refuses to even allow a discussion or a debate on the floor. I hope they understand the urgency of this issue, and act as soon as possible.    The budget request for the Maritime Administration represents a nearly 20-percent increase over the current level. Much of the increase comes from a one-time payoff offered to the maritime industry in exchange for a permanent reduction in the number of U.S. mariner jobs carrying cargo under the hugely successful Food for Peace program.    Since 1954, the Food for Peace program has provided agricultural commodities grown by U.S. farmers and transported by U.S. mariners on U.S.-flagged vessels to those threatened by starvation throughout the world. Unfortunately, for the third year in a row, the President proposes to restructure the Food for Peace program. This misguided proposal will eliminate a vital program for our farmers, put U.S. mariners out of work, and undermine our national security by reducing the domestic sealift capacity on which our military depends.    Republicans and Democrats have repeatedly come together to vote down this flawed proposal. I hope my colleagues will join me once again in rejecting the President's proposal and work with me on efforts to strengthen our merchant marine. I look forward to hearing from the Administrator on how he intends to move forward with his efforts to revitalize the U.S.-flag fleet.    Finally, the budget request for the Federal Maritime Commission proposes a 7-percent increase in funding over current levels and a nearly 10-percent budget increase in the number of staff. While this budget increase amounts to less than $2 million, I think it sends the wrong signal. I encourage the Chairman to continue to find ways to operate the Commission as efficiently as possible.    Our Nation is facing a very tough budget climate and the President's unrealistic request only makes things harder. I look forward to working with my colleagues to enact a responsible budget.    With that, I yield to Ranking Member Garamendi, who is right on time.</t>
   </si>
   <si>
     <t>412382</t>
   </si>
   <si>
-    <t>John Garamendi</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Garamendi. Thank you, Mr. Chairman. I am anxious to hear from our witnesses, so I am going to try to be brief.    First, congratulations to you on continuing the chairmanship. We have developed a very cooperative and cordial working relationship, and I look forward to continuing that. And thank you for the support on the issues that I care about--and, obviously, you do, too.    The maritime policy matters. It is our most--it is our national economic interest that we should act upon. As the world's largest trading nation, the United States exports and imports annually, in value, about one-fourth the global merchandise trade, approximately 95 percent of America's foreign trade: 1.3 billion tons moves by ships. Based on current projections, by the year 2020, U.S. foreign trade in goods may grow to four times today's value, and almost double its current tonnage.    Additionally, our inland waterway traffic will increase by one-third, providing new economic opportunities in the U.S. farmlands. The economic potential is there for all of us to see, but so are the challenges, such as solving the port congestion issues, finding new cargo to grow the U.S.-flag fleet, and U.S. foreign trade, and developing new incentives to expand and diversify the U.S. shipbuilding industry.    That is why we should not be shooting ourselves in the foot at a time when we should be ramping up our investments in our maritime agencies and in the U.S. maritime economy. But, unfortunately, we seem to be doing a lot of shooting towards our own feet.    If the House fails to pass before February 27th either a clean fiscal year 2016 appropriation bill for the Department of Homeland Security or extending the continuing resolution to provide funding for DHS agencies, including the United States Coast Guard, we will be unnecessarily creating short-term havoc with potential long-term repercussions. This makes no sense, especially in light of the heightened terrorism potential.    The Coast Guard is our first, our only line of defense protecting the U.S. maritime boundaries from all the threats abroad. It is irresponsible to subject the Coast Guard to a partial shutdown and ask active-duty coastguardsmen and coastguardswomen to work without pay simply to express a hard-headed disagreement with the administration over immigration policy.    In closing, Mr. Chairman, the Coast Guard prides itself on being semper paratus, or always ready. That is a fitting model for a very proud institution. Perhaps we ought to use that one ourselves. I hope, ultimately, that common sense might prevail, we can get past the current crisis of funding, make sure the Coast Guard has adequate funding, and our maritime industry is supported and given the opportunity to grow. Too much is at stake. We have our necessity to get our work done.    Mr. Chairman, I thank you, yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>400100</t>
   </si>
   <si>
-    <t>Peter A. DeFazio</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeFazio. Thank you. Thank you. I won't prolong this. I want to thank everyone. I won't go through that again.    I would just like to say I associate myself with the chairman's remarks about the President's budget as it relates to the Coast Guard. And I am going to say to the admiral--although I know this is a difficult situation--but we once had a colleague named Mike Parker. And Mike was a Democrat turned Republican. And in the Bush administration they made him Assistant Secretary over the Corps of Engineers. And he came before us for one of these budget hearings, and I looked at the proposed budget. I reminded him that they had a $45 billion, you know, critical asset backlog. And I said, ``Is this budget adequate to meet the needs of your agency, the Corps of Engineers of the United States of America?''    And he said, ``No, absolutely not.'' Now, that is the positive side, because I always try and get people who have that jurisdiction to tell us like it is. The downside was a week later he resigned because of family issues.    Now--so I am not going to ask you to be quite that candid, Admiral. But I am going to observe when Congress orders you to produce a list of priorities that are unmet, and you come up with four things, I don't buy it. And I think you are being a little too much of a good soldier here--not to call a Coastie a soldier, but, you know, in terms of--it is not the way the Pentagon works, I will tell you that. They make their needs that are unmet in the budget known in a million different ways.    I was just at Coast Guard Station Newport--beautiful. They do their own work. You don't find that on other military bases. They bring in contractors. You are the most frugal of the services, and you are critical. And you are absolutely critical on a day-to-day basis for the American people, and something they see--anybody who has access to the water or the coast--and saving lives.    And, you know, we have to figure out a way to get you adequate resources to meet all your national security obligations, which have grown dramatically post-9/11, but also to meet your day-to-day obligations, in terms of lifesavings. And some of the cuts that are proposed this last year, like cutting my Coast Guard Air Station in Newport, which does half the rescues on the Oregon coast in water that never gets warm, where you are dead in half an hour, is not a place to be cutting. And we have got to find a way around this. And part of it has got to be you, as much as possible, within your chain of command from the White House, being candid with us about your needs.    And, with that, I would yield back the balance of my time.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Zukunft</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Admiral Zukunft. Thank you, Chairman. And thank you, members of this committee. We have developed a number of strategies to address the concerns that were addressed by Ranking Member DeFazio, and we will talk about those in length later. But I am truly humbled to be here, to speak on behalf of the 88,000 men and women of our United States Coast Guard.    Let me begin by emphasizing that there has never been a greater demand for our Nation's Coast Guard. In our own hemisphere, in the Western Hemisphere, we are witnessing extreme violence in Central America, stemming from insidious transnational organized criminal networks.    We are also seeing significant maritime commerce ships fueled by the America energy renaissance. And we have rapidly seen increasing demands on both industry and Government in the world's newest domain of cyber.</t>
   </si>
   <si>
@@ -115,18 +103,12 @@
     <t xml:space="preserve">    Mr. Hunter. Administrator Jaenichen, you are recognized.</t>
   </si>
   <si>
-    <t>Jaenichen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jaenichen. Chairman Hunter, Ranking Member Garamendi, and members of the subcommittee, I appreciate this opportunity to discuss President Obama's budget request for the Maritime Administration for fiscal year 2016. The budget request reflects my priorities for maintaining our country's national security and preparedness, investment in mariner training, investment in our maritime transportation system infrastructure, enhancing U.S.-flag competitiveness, and fostering environmental sustainability.    The President's budget request continues to fund readiness programs that support Department of Defense sealift requirements. Funding provided from the U.S. Navy will allow the Maritime Administration to continue to provide ready surge sealift support in 2016 through the Ready Reserve Force. This is a fleet of 46 vessels whose primary purpose is to provide for rapid mass movement of defense equipment and supplies to support our armed forces, and to respond to national and humanitarian emergencies.    One of these vessels, the motor vessel Cape Ray, earned special recognition for its unprecedented support of the United Nations and the Organization for Prohibition of Chemical Weapons mission to neutralize the Syrian Government's declared stockpile of chemical weapons. More recently, three Ready Reserve Force vessels were activated to support the DOD medical mission to Liberia for the Ebola virus response for Operation United Assistance.    For fiscal year 2016, $186 million is requested to fully fund, at the authorized level, the Maritime Security Program. This program provides a fleet of 60 commercial privately owned, military useful, U.S.-flagged and U.S.-crewed ships whose primary purpose is to provide assured access to sealift to support global projection of our U.S. armed forces, including access to their worldwide intermodal logistics capacity. The MSP is the core of the U.S.-flag fleet, and provides critical employment for 2,400 U.S. merchant mariners, creating a reliable pool of mariners ready to support the activation of our Government's Reserve sealift fleets.    The fiscal year 2016 funding enables the Department of Transportation to continue to maintain this critical national asset, and the men and women who crew them. However, declining cargoes are creating a significant challenge for the MSP, most notably the declining Department of Defense cargo to the drawdown in Afghanistan and Iraq, coupled with more than an 80-percent reduction in personnel and military bases overseas since 1990 are impacting the U.S. fleet operating in international trade.    It is for this reason we are working with industry and Government stakeholders to develop a National Maritime Strategy to support the U.S. maritime industry, and ensure the availability of U.S.-flag vessels to support national security. I know the committee is anxious for a strategy to be completed, and I am committed to providing one as soon as possible.    I want to highlight that this budget request is an increase in our mariner training programs. This increase in funding will ensure that we can continue to produce highly skilled U.S. merchant marine officers to support America's economic as well as our national security requirements.    The President's fiscal year 2016 budget request includes $34.6 million to support our six State maritime academies. Included in that request is $5 million for the planning and design of a national security multimission vessel to support the replacement of the 53-year-old training vessel Empire State, currently used by the State University of New York Maritime College.    The budget also includes $22 million to fund maintenance and repair costs for federally owned training ships currently on loan from the Maritime Administration to the other five State maritime academies. These training vessels provide opportunities for midshipmen and cadets to get important hands-on experience and technical training, a critical educational component, in order to qualify to take their U.S. Coast Guard merchant mariner officer examination.    In addition to providing a training platform, these ships have been called up in the past to respond to humanitarian emergencies and disaster response efforts. For these training vessels are rapidly approaching the end of their useful life, and we must develop a recapitalization proposal and analysis of alternatives, with a multiyear budget scheme to address the replacement of vessels.    The President's budget also includes $96 million for the U.S. Merchant Marine Academy, which will enable the Academy to effectively achieve its core responsibility of providing the highest caliber academic study and the state-of-the-art learning facilities in the Nation's future merchant marine officers and maritime transportation professionals.    Finally, the fiscal year budget request reflects a continued commitment to reducing and mitigating transportation-related impacts on the environment, including $5 million for the MarAd ship disposal program, which currently is at a historic low of 19 obsolete vessels, having responsibly disposed of over 200 vessels since the year 2000. With the requested funding level in 2016, we plan to remove an additional eight vessels in 2016.    Mr. Chairman, I appreciate the subcommittee's continuing support for maritime programs, and I look forward to working with you on advancing the maritime transportation of the United States, and establishing a maritime strategy.    And I am happy to respond to any questions that you or the subcommittee may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hunter. Thank you, Administrator. I still find that number, 80-percent reduction in forces around the world, military forces since 1990, extremely interesting. Thank you, Administrator.    Chairman Cordero, you are recognized.</t>
   </si>
   <si>
-    <t>Cordero</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cordero. Mr. Chairman, Ranking Member Garamendi, and members of the subcommittee, thank you for this opportunity to present the President's fiscal year 2016 budget for the Federal Maritime Commission. With me today are my colleague Commissioners, Rebecca Dye, Michael Khouri, William Doyle, as well as the Commission's senior executives.    With the committee's permission, I would like my full written statement to be included in the record, and submitted.    The President's budget for the Commission provides $27,387,000 for fiscal year 2016. This will fund 135 full-time equivalent employees, as well as mandatory rent, interagency services, and critical commercial services. Our fiscal year 2016 budget request includes $19.8 million for salaries and benefits of the 135 FTEs expected to be on board at the end of fiscal year 2016 to support the Commission's mandate and protect the American shippers.    Administrative expenses are funded at $7.4 million in fiscal year 2016 to support our number of business expenses, representing a net increase of just $84,000 over fiscal year 2015.    The Commission continues to work diligently to support the Nation's goals to increase exports, the vast majority of which move through our ports. Ports are the gateways that handle $900 billion worth of containerized goods annually.    The Commission monitors the continued growth of chassis agreements, and the increase in ocean carriers divesting from chassis fleets, which impact cargo movements in ports. Several months ago, I hosted a forum on U.S. port congestions in Los Angeles to foster a dialogue between industry stakeholders, regulators, and the general public on the causes and impacts of congestion. Signs of chronic congestion in our Nation's ports have been surfacing over the last few years. Congestion is a serious threat to global trade. So much so that one private-sector economist recently opined as follows: ``The biggest threat of global trade isn't protectionism, war, or terrorism, disease or natural disasters. But, instead, mounting congestion at global ports and the crumbling infrastructure surrounding them.''    It is clear that much of the congestion plaguing U.S. ports is not tied to the absence of an ILWU-PMA agreement, for which there is now resolution. This conclusion is based on the input received by the Commission at its four regional port congestion forums held last fall. Forums were held in Los Angeles, Baltimore, Charleston, and New Orleans, in order that the industry participants in those gateways and port regions address causes and possible solutions to congestion.    There are many factors causing congestion, including unavailability of chassis at U.S. ports. Ocean carriers serving Los Angeles, Long Beach, New York, New Jersey, Baltimore, and other ports have been withdrawing from owning and providing chassis in order to reduce costs. Another important source of congestion stands from the impact of the introduction of 15,000 to 18,000 TEU vessels. Though the megavessels helped carriers significantly reduce their operating costs when they are unloaded at the U.S. ports, challenges have been presented. Logistics have been problematic, as a result.    Presently, the Commission is working on a study that addresses congestion at U.S. ports, and continues to work with other Federal agencies to find solutions to supply chain bottlenecks. Closely related to congestion is the matter of marine terminal operator and ocean common carrier demurrage charges. The Commission is receiving numerous complaints by shippers, American shippers, who are repeatedly told that they may not retrieve containers due to on-dock congestion or gate delays. Furthermore, the container will not be released until demurrage is paid.    The increased funding for fiscal year 2016 will allow the Commission to enhance its efforts in addressing both supply chain and port congestion issues. The recovery in the U.S. liner trades continued in 2014, with U.S. container exports and imports worldwide reaching 31 million TEUs in fiscal year 2014, compared to 30.5 million TEUs in 2013. The Commission continues to closely monitor the operation of the alliance agreements on the world's largest container operators that are filed with the Commission. The parties to four agreements account for 96.8 percent of the containerized trade in the Asia-U.S. west coast trades.    To reduce regulatory burdens, the Commission revised provisions from its advanced notice of proposed rulemakings to our OTI rules. Based on the feedback from the industry, Chairman Hunter, and other Members of the Congress, the Commission issued a proposed rule that would lengthen the time of the period for the OTIs to renew their license from 2 to 3 years, and free--and no fee. So, essentially, free of charge. Commission staff is working on recommendations to streamline other parts of our regulations, including those with service contracts and NVOCC service arrangements.    With the funding support that Congress provided for fiscal year 2014 and fiscal year 2015, the Commission has made great progress towards creating a modern, user-friendly, and, most importantly, efficient system that can make the agency more productive. With the increased funding for fiscal year 2016, the FMC will be able to continue to--its multiyear enhancement of its IT systems to carry out its congressional mandate.    Mr. Chairman and members of the subcommittee, it is an honor to appear before the subcommittee, and I thank you for your support for the Commission throughout the years, and I am happy to answer any questions you may have.</t>
   </si>
   <si>
@@ -136,9 +118,6 @@
     <t>412621</t>
   </si>
   <si>
-    <t>Carlos Curbelo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Curbelo. Thank you very much, Mr. Chairman. And I certainly share your concerns with regards to the administration's fiscal year 2016 budget.    Admiral Zukunft, welcome, and thank you very much for your testimony. I was in Coast Guard Station Key West on Wednesday of last week, and I was reminded of the importance and the unique challenges that the Coast Guard faces in the State of Florida.    I specifically wanted to ask you with regards to Reserve training, the President requested a $9.4 million decrease for the Reserve training account in fiscal year 2016. The budget also assumes enactment of a proposal made in the fiscal year 2015 request that would move 600 reservists from selected Reserve to inactive Ready Reserve, essentially making them unable to respond if the country needed them without significant lag time to train.    As you know, in Florida we had--and all along the gulf coast--the unfortunate incident of the Deepwater Horizon some 5 years ago. Considering the risk of terrorist attacks, of spills of national significance, do you think that these reduced numbers will allow the Coast Guard to effectively respond to these types of scenarios?</t>
   </si>
   <si>
@@ -160,9 +139,6 @@
     <t xml:space="preserve">    Mr. Garamendi. Mr. Chairman, I think you have started a very good practice. Those who--you and I are always here, and we have time for our questions. I would like to pass my time to Member Hahn.</t>
   </si>
   <si>
-    <t>Hahn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Hahn. Thank you, Mr. Chairman, Ranking Member. I think I am always here, too, but I will take the opportunity to ask my questions.    And I have several questions that if I--we need to do a second round, I want to do that, because I have some questions for the Coast Guard. But I wanted to start with Chairman Cordero, because you were really bringing it up about port congestion. And I will tell you. These last contract negotiations between the PMA and the ILWU were really long and arduous, and really had an impact, unfortunately, on so much in this country.    And before I ask you my question, I just want to say it--to me, and to, I think, the rest of the country, what happened was unfortunate, and had nothing to do with the actual negotiations going on in San Francisco. I actually would like to see the Federal Maritime Commission look into some of the unilateral actions by the Pacific Maritime Association, in terms of, you know, not allowing the workers to work in the evenings and on the weekends. I think that was really untenable and unfortunate.    And I would think the Coast Guard would also have--you know, would have had a fit. I can see, from my house, those--at one point there were 35 ships outside of Long Beach/Los Angeles breakwater. The Coast Guard base is right there. You know, that had to cause a lot of extra angst for the Coast Guard. So that would be something I would like to see, a full investigation on how, in 5 years from now, when we go back through these contract negotiations, we don't have that kind of, really, lockdown of our ports on the west coast.    But Honorable Cordero, I am very concerned about the congestion at the ports. As you said, the fact that this contract was agreed to and will be ratified, most likely, does not necessarily change the congestion on the docks. And we got a lot of big problems. Panama Canal expansion project is coming online next year. We are not going to stop that. But what can we do for our ports in this country to really address this congestion?    And I know you talked about it generally in your remarks, but could you be more specific on what is the Commission going to do to address the congestion on the docks, the last mile going in and out of our ports? It is a serious problem that could put us at a huge globally competitive disadvantage.    I said a lot; I hope there was a question in there.</t>
   </si>
   <si>
@@ -271,9 +247,6 @@
     <t>400090</t>
   </si>
   <si>
-    <t>Elijah E. Cummings</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cummings. Let me--Mr. Chairman, I want to thank you for your comments that you just made.    And I hope that--it just reminds me, with regard to the Jones Act, I agree with you, Administrator. I mean we can't even--we--you know, it seems as if there is some real short-sightedness going on here, and that is a major problem. And I am hoping that the chairman will join all of us on this--particularly on this subcommittee, to try to make sure that the Congress understands the significance of the Jones Act, because I think a lot of our colleagues just do not understand how significant it is, and how America is falling behind. I used to say slowly, but surely. Now it is fast.    And that leads me to these questions. You know, as you know, our highest priority, Administrator, you know, was to try to make sure that we--well, when I go back and I think about my chairmanship of the subcommittee over the Coast Guard, you know, we spent a lot of time just trying to make sure that our ports were safe. And we put in a lot of measures to try to accomplish that. Where are we on that, the port--with regard to Coast Guard and ports?</t>
   </si>
   <si>
@@ -311,9 +284,6 @@
   </si>
   <si>
     <t>412516</t>
-  </si>
-  <si>
-    <t>Julia Brownley</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Brownley. Thank you, Mr. Chairman. I appreciate it. I am a new member of the T&amp;I Committee, and very, very honored to be able to sit on this subcommittee. And I have a very specific question, probably for you, Admiral. And it is--my understanding that the Coast Guard air station currently located at Los Angeles International Airport will be relocating to Point Mugu Naval Air Station, part of Naval Base Ventura County, which is in my district. I am very excited about this news, very pleased about the move, and look forward to welcoming new personnel to Ventura County.    My first question is, if Congress does fail to fund DHS programs this week, would the shutdown affect the planning of this move, and would it impact it at all?</t>
@@ -1045,11 +1015,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1069,13 +1037,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1097,11 +1063,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1121,13 +1085,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1149,11 +1111,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1173,13 +1133,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1201,11 +1159,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1225,13 +1181,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1253,11 +1207,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1279,11 +1231,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1305,11 +1255,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1331,11 +1279,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1357,11 +1303,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1383,11 +1327,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1407,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1435,11 +1375,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1459,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1487,11 +1423,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1511,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" t="s">
-        <v>40</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1537,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1563,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" t="s">
-        <v>40</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1589,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1615,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" t="s">
-        <v>40</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1643,11 +1567,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1667,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1693,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>48</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1719,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1745,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>48</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1771,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1797,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>48</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1823,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1849,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>48</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1877,11 +1783,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1901,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1927,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1953,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1981,11 +1879,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2005,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2031,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2057,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2083,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2109,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2135,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2161,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2187,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2213,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2241,11 +2119,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2265,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2293,11 +2167,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2317,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2345,11 +2215,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2369,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2397,11 +2263,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2421,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2449,11 +2311,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2473,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2501,11 +2359,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2525,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2553,11 +2407,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2577,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2603,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>84</v>
-      </c>
-      <c r="G62" t="s">
-        <v>85</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2629,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2655,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>84</v>
-      </c>
-      <c r="G64" t="s">
-        <v>85</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2681,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2707,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>84</v>
-      </c>
-      <c r="G66" t="s">
-        <v>85</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2733,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2759,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>84</v>
-      </c>
-      <c r="G68" t="s">
-        <v>85</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2785,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2811,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>84</v>
-      </c>
-      <c r="G70" t="s">
+        <v>76</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
         <v>85</v>
-      </c>
-      <c r="H70" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2837,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2863,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>84</v>
-      </c>
-      <c r="G72" t="s">
-        <v>85</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2891,11 +2719,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2915,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>98</v>
-      </c>
-      <c r="G74" t="s">
-        <v>99</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2941,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2967,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>98</v>
-      </c>
-      <c r="G76" t="s">
-        <v>99</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2993,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3019,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>98</v>
-      </c>
-      <c r="G78" t="s">
-        <v>99</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3045,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3071,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>98</v>
-      </c>
-      <c r="G80" t="s">
-        <v>99</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3097,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3123,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
+        <v>89</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
         <v>98</v>
-      </c>
-      <c r="G82" t="s">
-        <v>99</v>
-      </c>
-      <c r="H82" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3151,11 +2959,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3177,11 +2983,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3201,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3227,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3253,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3279,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3305,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3331,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3357,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3383,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3409,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3435,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3461,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3487,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3513,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3539,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3565,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3591,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3617,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3643,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3669,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
-      </c>
-      <c r="G103" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3695,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3721,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3747,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3773,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3799,13 +3557,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3825,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3851,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3877,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>22</v>
-      </c>
-      <c r="G111" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3903,13 +3653,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3929,13 +3677,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
-      </c>
-      <c r="G113" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3955,13 +3701,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3981,13 +3725,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4007,13 +3749,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4035,11 +3775,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4059,13 +3797,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>22</v>
-      </c>
-      <c r="G118" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4085,13 +3821,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G119" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4111,13 +3845,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>22</v>
-      </c>
-      <c r="G120" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4137,13 +3869,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>22</v>
-      </c>
-      <c r="G121" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4163,13 +3893,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>22</v>
-      </c>
-      <c r="G122" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4189,13 +3917,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>22</v>
-      </c>
-      <c r="G123" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4217,11 +3943,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4241,13 +3965,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>22</v>
-      </c>
-      <c r="G125" t="s">
-        <v>48</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4267,13 +3989,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>22</v>
-      </c>
-      <c r="G126" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4293,13 +4013,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>22</v>
-      </c>
-      <c r="G127" t="s">
-        <v>48</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4319,13 +4037,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4345,13 +4061,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>22</v>
-      </c>
-      <c r="G129" t="s">
-        <v>48</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4371,13 +4085,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4397,13 +4109,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>22</v>
-      </c>
-      <c r="G131" t="s">
-        <v>48</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4425,11 +4135,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4449,13 +4157,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4477,11 +4183,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4503,11 +4207,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4529,11 +4231,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4555,11 +4255,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4581,11 +4279,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4607,11 +4303,9 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-      <c r="G139" t="s">
-        <v>12</v>
-      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4633,11 +4327,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4659,11 +4351,9 @@
       <c r="F141" t="s">
         <v>11</v>
       </c>
-      <c r="G141" t="s">
-        <v>12</v>
-      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4685,11 +4375,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4711,11 +4399,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>12</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4735,13 +4421,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4763,11 +4447,9 @@
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4787,13 +4469,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>22</v>
-      </c>
-      <c r="G146" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4815,11 +4495,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4839,13 +4517,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>22</v>
-      </c>
-      <c r="G148" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4867,11 +4543,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4891,13 +4565,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>84</v>
-      </c>
-      <c r="G150" t="s">
-        <v>85</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4917,13 +4589,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>22</v>
-      </c>
-      <c r="G151" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4943,13 +4613,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>84</v>
-      </c>
-      <c r="G152" t="s">
-        <v>85</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4969,13 +4637,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>84</v>
-      </c>
-      <c r="G153" t="s">
-        <v>85</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4995,13 +4661,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>84</v>
-      </c>
-      <c r="G154" t="s">
-        <v>85</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5023,11 +4687,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5047,13 +4709,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>22</v>
-      </c>
-      <c r="G156" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5075,11 +4735,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5099,13 +4757,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>22</v>
-      </c>
-      <c r="G158" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5127,11 +4783,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5151,13 +4805,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>22</v>
-      </c>
-      <c r="G160" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5179,11 +4831,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5203,13 +4853,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>22</v>
-      </c>
-      <c r="G162" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5231,11 +4879,9 @@
       <c r="F163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" t="s">
-        <v>12</v>
-      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5255,13 +4901,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>22</v>
-      </c>
-      <c r="G164" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5283,11 +4927,9 @@
       <c r="F165" t="s">
         <v>11</v>
       </c>
-      <c r="G165" t="s">
-        <v>12</v>
-      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5307,13 +4949,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>22</v>
-      </c>
-      <c r="G166" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5335,11 +4975,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5359,13 +4997,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>22</v>
-      </c>
-      <c r="G168" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5387,11 +5023,9 @@
       <c r="F169" t="s">
         <v>11</v>
       </c>
-      <c r="G169" t="s">
-        <v>12</v>
-      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5411,13 +5045,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>22</v>
-      </c>
-      <c r="G170" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5439,11 +5071,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5463,13 +5093,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>22</v>
-      </c>
-      <c r="G172" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5491,11 +5119,9 @@
       <c r="F173" t="s">
         <v>11</v>
       </c>
-      <c r="G173" t="s">
-        <v>12</v>
-      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5515,13 +5141,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>22</v>
-      </c>
-      <c r="G174" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5543,11 +5167,9 @@
       <c r="F175" t="s">
         <v>11</v>
       </c>
-      <c r="G175" t="s">
-        <v>12</v>
-      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5567,13 +5189,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>22</v>
-      </c>
-      <c r="G176" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5595,11 +5215,9 @@
       <c r="F177" t="s">
         <v>11</v>
       </c>
-      <c r="G177" t="s">
-        <v>12</v>
-      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5619,13 +5237,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>22</v>
-      </c>
-      <c r="G178" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5647,11 +5263,9 @@
       <c r="F179" t="s">
         <v>11</v>
       </c>
-      <c r="G179" t="s">
-        <v>12</v>
-      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5671,13 +5285,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>22</v>
-      </c>
-      <c r="G180" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5699,11 +5311,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5723,13 +5333,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>22</v>
-      </c>
-      <c r="G182" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5751,11 +5359,9 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>12</v>
-      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5775,13 +5381,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>22</v>
-      </c>
-      <c r="G184" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5803,11 +5407,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>12</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93531.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93531.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412283</t>
   </si>
   <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Duncan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hunter. The subcommittee will come to order. The subcommittee is meeting today to hear testimony on the President's fiscal year 2016 budget request from the leaders of the Coast Guard, the Maritime Administration, and the Federal Maritime Commission.    This is our first hearing of the new Congress, so I want to take a moment and welcome back Ranking Member Garamendi, who will be here shortly, and thank him for working with me so well in the last Congress. I also want to welcome the new members of the subcommittee. I look forward to working with each of you over the next few years. We have two new members over here, on my right, and none on the other side.    The President sent Congress a budget that would increase spending by nearly $75 billion over the fiscal year 2016 spending cap. As a result, most Federal agencies are slated to receive generous increases in spending over current levels, including a nearly 20-percent increase for the Maritime Administration and a 7-percent increase for the Federal Maritime Commission. Yet, somehow, even with an additional $75 billion, the President still proposes to cut funding for the Coast Guard, this time by 4 percent below the current level.    The request would slash the Coast Guard's acquisition budget by 26 percent. The proposed level is at least $1 billion less than what is required to sustain the acquisition program of record. It will severely undermine efforts to recapitalize the Service's aging and failing legacy assets, increase acquisition costs for taxpayers, and seriously degrade mission effectiveness.    For the fourth year in a row, the administration is playing a reckless game. They propose a budget that cuts funding for the Coast Guard so they can pay for increases at other agencies, betting that Congress will somehow restore the millions of dollars needed to sustain Coast Guard acquisitions and frontline operations. Quite frankly, I'm getting tired of playing this game. Congress is running out of quarters. If the President is going to continue to propose these cuts year after year, he needs to tell us how he intends to rescope the missions of the Coast Guard to reflect his reduced budgets.    This is the first time Admiral Zukunft and Master Chief Cantrell appear before us. I want to commend both of you for your leadership and tremendous service to our Nation. I fully understand the situation they've been put in with this budget and I appreciate their candor in describing what these cuts will mean for the ability of the Service to successfully complete its missions.    I also understand the situation you face on Saturday if Congress does not act on a fiscal year 2015 budget for the Department of Homeland Security. I know there will be a lot of questions about the impact a shutdown or a CR may have on the Coast Guard, and I know you will answer them candidly. However, I want to remind everyone that the House passed a bill. It is now up to the Senate to act. Unfortunately, the Senate minority refuses to even allow a discussion or a debate on the floor. I hope they understand the urgency of this issue, and act as soon as possible.    The budget request for the Maritime Administration represents a nearly 20-percent increase over the current level. Much of the increase comes from a one-time payoff offered to the maritime industry in exchange for a permanent reduction in the number of U.S. mariner jobs carrying cargo under the hugely successful Food for Peace program.    Since 1954, the Food for Peace program has provided agricultural commodities grown by U.S. farmers and transported by U.S. mariners on U.S.-flagged vessels to those threatened by starvation throughout the world. Unfortunately, for the third year in a row, the President proposes to restructure the Food for Peace program. This misguided proposal will eliminate a vital program for our farmers, put U.S. mariners out of work, and undermine our national security by reducing the domestic sealift capacity on which our military depends.    Republicans and Democrats have repeatedly come together to vote down this flawed proposal. I hope my colleagues will join me once again in rejecting the President's proposal and work with me on efforts to strengthen our merchant marine. I look forward to hearing from the Administrator on how he intends to move forward with his efforts to revitalize the U.S.-flag fleet.    Finally, the budget request for the Federal Maritime Commission proposes a 7-percent increase in funding over current levels and a nearly 10-percent budget increase in the number of staff. While this budget increase amounts to less than $2 million, I think it sends the wrong signal. I encourage the Chairman to continue to find ways to operate the Commission as efficiently as possible.    Our Nation is facing a very tough budget climate and the President's unrealistic request only makes things harder. I look forward to working with my colleagues to enact a responsible budget.    With that, I yield to Ranking Member Garamendi, who is right on time.</t>
   </si>
   <si>
     <t>412382</t>
   </si>
   <si>
+    <t>Garamendi</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Garamendi. Thank you, Mr. Chairman. I am anxious to hear from our witnesses, so I am going to try to be brief.    First, congratulations to you on continuing the chairmanship. We have developed a very cooperative and cordial working relationship, and I look forward to continuing that. And thank you for the support on the issues that I care about--and, obviously, you do, too.    The maritime policy matters. It is our most--it is our national economic interest that we should act upon. As the world's largest trading nation, the United States exports and imports annually, in value, about one-fourth the global merchandise trade, approximately 95 percent of America's foreign trade: 1.3 billion tons moves by ships. Based on current projections, by the year 2020, U.S. foreign trade in goods may grow to four times today's value, and almost double its current tonnage.    Additionally, our inland waterway traffic will increase by one-third, providing new economic opportunities in the U.S. farmlands. The economic potential is there for all of us to see, but so are the challenges, such as solving the port congestion issues, finding new cargo to grow the U.S.-flag fleet, and U.S. foreign trade, and developing new incentives to expand and diversify the U.S. shipbuilding industry.    That is why we should not be shooting ourselves in the foot at a time when we should be ramping up our investments in our maritime agencies and in the U.S. maritime economy. But, unfortunately, we seem to be doing a lot of shooting towards our own feet.    If the House fails to pass before February 27th either a clean fiscal year 2016 appropriation bill for the Department of Homeland Security or extending the continuing resolution to provide funding for DHS agencies, including the United States Coast Guard, we will be unnecessarily creating short-term havoc with potential long-term repercussions. This makes no sense, especially in light of the heightened terrorism potential.    The Coast Guard is our first, our only line of defense protecting the U.S. maritime boundaries from all the threats abroad. It is irresponsible to subject the Coast Guard to a partial shutdown and ask active-duty coastguardsmen and coastguardswomen to work without pay simply to express a hard-headed disagreement with the administration over immigration policy.    In closing, Mr. Chairman, the Coast Guard prides itself on being semper paratus, or always ready. That is a fitting model for a very proud institution. Perhaps we ought to use that one ourselves. I hope, ultimately, that common sense might prevail, we can get past the current crisis of funding, make sure the Coast Guard has adequate funding, and our maritime industry is supported and given the opportunity to grow. Too much is at stake. We have our necessity to get our work done.    Mr. Chairman, I thank you, yield back.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>400100</t>
   </si>
   <si>
+    <t>DeFazio</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. DeFazio. Thank you. Thank you. I won't prolong this. I want to thank everyone. I won't go through that again.    I would just like to say I associate myself with the chairman's remarks about the President's budget as it relates to the Coast Guard. And I am going to say to the admiral--although I know this is a difficult situation--but we once had a colleague named Mike Parker. And Mike was a Democrat turned Republican. And in the Bush administration they made him Assistant Secretary over the Corps of Engineers. And he came before us for one of these budget hearings, and I looked at the proposed budget. I reminded him that they had a $45 billion, you know, critical asset backlog. And I said, ``Is this budget adequate to meet the needs of your agency, the Corps of Engineers of the United States of America?''    And he said, ``No, absolutely not.'' Now, that is the positive side, because I always try and get people who have that jurisdiction to tell us like it is. The downside was a week later he resigned because of family issues.    Now--so I am not going to ask you to be quite that candid, Admiral. But I am going to observe when Congress orders you to produce a list of priorities that are unmet, and you come up with four things, I don't buy it. And I think you are being a little too much of a good soldier here--not to call a Coastie a soldier, but, you know, in terms of--it is not the way the Pentagon works, I will tell you that. They make their needs that are unmet in the budget known in a million different ways.    I was just at Coast Guard Station Newport--beautiful. They do their own work. You don't find that on other military bases. They bring in contractors. You are the most frugal of the services, and you are critical. And you are absolutely critical on a day-to-day basis for the American people, and something they see--anybody who has access to the water or the coast--and saving lives.    And, you know, we have to figure out a way to get you adequate resources to meet all your national security obligations, which have grown dramatically post-9/11, but also to meet your day-to-day obligations, in terms of lifesavings. And some of the cuts that are proposed this last year, like cutting my Coast Guard Air Station in Newport, which does half the rescues on the Oregon coast in water that never gets warm, where you are dead in half an hour, is not a place to be cutting. And we have got to find a way around this. And part of it has got to be you, as much as possible, within your chain of command from the White House, being candid with us about your needs.    And, with that, I would yield back the balance of my time.</t>
   </si>
   <si>
@@ -76,6 +97,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Zukunft</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Admiral Zukunft. Thank you, Chairman. And thank you, members of this committee. We have developed a number of strategies to address the concerns that were addressed by Ranking Member DeFazio, and we will talk about those in length later. But I am truly humbled to be here, to speak on behalf of the 88,000 men and women of our United States Coast Guard.    Let me begin by emphasizing that there has never been a greater demand for our Nation's Coast Guard. In our own hemisphere, in the Western Hemisphere, we are witnessing extreme violence in Central America, stemming from insidious transnational organized criminal networks.    We are also seeing significant maritime commerce ships fueled by the America energy renaissance. And we have rapidly seen increasing demands on both industry and Government in the world's newest domain of cyber.</t>
   </si>
   <si>
@@ -103,12 +127,18 @@
     <t xml:space="preserve">    Mr. Hunter. Administrator Jaenichen, you are recognized.</t>
   </si>
   <si>
+    <t>Jaenichen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Jaenichen. Chairman Hunter, Ranking Member Garamendi, and members of the subcommittee, I appreciate this opportunity to discuss President Obama's budget request for the Maritime Administration for fiscal year 2016. The budget request reflects my priorities for maintaining our country's national security and preparedness, investment in mariner training, investment in our maritime transportation system infrastructure, enhancing U.S.-flag competitiveness, and fostering environmental sustainability.    The President's budget request continues to fund readiness programs that support Department of Defense sealift requirements. Funding provided from the U.S. Navy will allow the Maritime Administration to continue to provide ready surge sealift support in 2016 through the Ready Reserve Force. This is a fleet of 46 vessels whose primary purpose is to provide for rapid mass movement of defense equipment and supplies to support our armed forces, and to respond to national and humanitarian emergencies.    One of these vessels, the motor vessel Cape Ray, earned special recognition for its unprecedented support of the United Nations and the Organization for Prohibition of Chemical Weapons mission to neutralize the Syrian Government's declared stockpile of chemical weapons. More recently, three Ready Reserve Force vessels were activated to support the DOD medical mission to Liberia for the Ebola virus response for Operation United Assistance.    For fiscal year 2016, $186 million is requested to fully fund, at the authorized level, the Maritime Security Program. This program provides a fleet of 60 commercial privately owned, military useful, U.S.-flagged and U.S.-crewed ships whose primary purpose is to provide assured access to sealift to support global projection of our U.S. armed forces, including access to their worldwide intermodal logistics capacity. The MSP is the core of the U.S.-flag fleet, and provides critical employment for 2,400 U.S. merchant mariners, creating a reliable pool of mariners ready to support the activation of our Government's Reserve sealift fleets.    The fiscal year 2016 funding enables the Department of Transportation to continue to maintain this critical national asset, and the men and women who crew them. However, declining cargoes are creating a significant challenge for the MSP, most notably the declining Department of Defense cargo to the drawdown in Afghanistan and Iraq, coupled with more than an 80-percent reduction in personnel and military bases overseas since 1990 are impacting the U.S. fleet operating in international trade.    It is for this reason we are working with industry and Government stakeholders to develop a National Maritime Strategy to support the U.S. maritime industry, and ensure the availability of U.S.-flag vessels to support national security. I know the committee is anxious for a strategy to be completed, and I am committed to providing one as soon as possible.    I want to highlight that this budget request is an increase in our mariner training programs. This increase in funding will ensure that we can continue to produce highly skilled U.S. merchant marine officers to support America's economic as well as our national security requirements.    The President's fiscal year 2016 budget request includes $34.6 million to support our six State maritime academies. Included in that request is $5 million for the planning and design of a national security multimission vessel to support the replacement of the 53-year-old training vessel Empire State, currently used by the State University of New York Maritime College.    The budget also includes $22 million to fund maintenance and repair costs for federally owned training ships currently on loan from the Maritime Administration to the other five State maritime academies. These training vessels provide opportunities for midshipmen and cadets to get important hands-on experience and technical training, a critical educational component, in order to qualify to take their U.S. Coast Guard merchant mariner officer examination.    In addition to providing a training platform, these ships have been called up in the past to respond to humanitarian emergencies and disaster response efforts. For these training vessels are rapidly approaching the end of their useful life, and we must develop a recapitalization proposal and analysis of alternatives, with a multiyear budget scheme to address the replacement of vessels.    The President's budget also includes $96 million for the U.S. Merchant Marine Academy, which will enable the Academy to effectively achieve its core responsibility of providing the highest caliber academic study and the state-of-the-art learning facilities in the Nation's future merchant marine officers and maritime transportation professionals.    Finally, the fiscal year budget request reflects a continued commitment to reducing and mitigating transportation-related impacts on the environment, including $5 million for the MarAd ship disposal program, which currently is at a historic low of 19 obsolete vessels, having responsibly disposed of over 200 vessels since the year 2000. With the requested funding level in 2016, we plan to remove an additional eight vessels in 2016.    Mr. Chairman, I appreciate the subcommittee's continuing support for maritime programs, and I look forward to working with you on advancing the maritime transportation of the United States, and establishing a maritime strategy.    And I am happy to respond to any questions that you or the subcommittee may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hunter. Thank you, Administrator. I still find that number, 80-percent reduction in forces around the world, military forces since 1990, extremely interesting. Thank you, Administrator.    Chairman Cordero, you are recognized.</t>
   </si>
   <si>
+    <t>Cordero</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cordero. Mr. Chairman, Ranking Member Garamendi, and members of the subcommittee, thank you for this opportunity to present the President's fiscal year 2016 budget for the Federal Maritime Commission. With me today are my colleague Commissioners, Rebecca Dye, Michael Khouri, William Doyle, as well as the Commission's senior executives.    With the committee's permission, I would like my full written statement to be included in the record, and submitted.    The President's budget for the Commission provides $27,387,000 for fiscal year 2016. This will fund 135 full-time equivalent employees, as well as mandatory rent, interagency services, and critical commercial services. Our fiscal year 2016 budget request includes $19.8 million for salaries and benefits of the 135 FTEs expected to be on board at the end of fiscal year 2016 to support the Commission's mandate and protect the American shippers.    Administrative expenses are funded at $7.4 million in fiscal year 2016 to support our number of business expenses, representing a net increase of just $84,000 over fiscal year 2015.    The Commission continues to work diligently to support the Nation's goals to increase exports, the vast majority of which move through our ports. Ports are the gateways that handle $900 billion worth of containerized goods annually.    The Commission monitors the continued growth of chassis agreements, and the increase in ocean carriers divesting from chassis fleets, which impact cargo movements in ports. Several months ago, I hosted a forum on U.S. port congestions in Los Angeles to foster a dialogue between industry stakeholders, regulators, and the general public on the causes and impacts of congestion. Signs of chronic congestion in our Nation's ports have been surfacing over the last few years. Congestion is a serious threat to global trade. So much so that one private-sector economist recently opined as follows: ``The biggest threat of global trade isn't protectionism, war, or terrorism, disease or natural disasters. But, instead, mounting congestion at global ports and the crumbling infrastructure surrounding them.''    It is clear that much of the congestion plaguing U.S. ports is not tied to the absence of an ILWU-PMA agreement, for which there is now resolution. This conclusion is based on the input received by the Commission at its four regional port congestion forums held last fall. Forums were held in Los Angeles, Baltimore, Charleston, and New Orleans, in order that the industry participants in those gateways and port regions address causes and possible solutions to congestion.    There are many factors causing congestion, including unavailability of chassis at U.S. ports. Ocean carriers serving Los Angeles, Long Beach, New York, New Jersey, Baltimore, and other ports have been withdrawing from owning and providing chassis in order to reduce costs. Another important source of congestion stands from the impact of the introduction of 15,000 to 18,000 TEU vessels. Though the megavessels helped carriers significantly reduce their operating costs when they are unloaded at the U.S. ports, challenges have been presented. Logistics have been problematic, as a result.    Presently, the Commission is working on a study that addresses congestion at U.S. ports, and continues to work with other Federal agencies to find solutions to supply chain bottlenecks. Closely related to congestion is the matter of marine terminal operator and ocean common carrier demurrage charges. The Commission is receiving numerous complaints by shippers, American shippers, who are repeatedly told that they may not retrieve containers due to on-dock congestion or gate delays. Furthermore, the container will not be released until demurrage is paid.    The increased funding for fiscal year 2016 will allow the Commission to enhance its efforts in addressing both supply chain and port congestion issues. The recovery in the U.S. liner trades continued in 2014, with U.S. container exports and imports worldwide reaching 31 million TEUs in fiscal year 2014, compared to 30.5 million TEUs in 2013. The Commission continues to closely monitor the operation of the alliance agreements on the world's largest container operators that are filed with the Commission. The parties to four agreements account for 96.8 percent of the containerized trade in the Asia-U.S. west coast trades.    To reduce regulatory burdens, the Commission revised provisions from its advanced notice of proposed rulemakings to our OTI rules. Based on the feedback from the industry, Chairman Hunter, and other Members of the Congress, the Commission issued a proposed rule that would lengthen the time of the period for the OTIs to renew their license from 2 to 3 years, and free--and no fee. So, essentially, free of charge. Commission staff is working on recommendations to streamline other parts of our regulations, including those with service contracts and NVOCC service arrangements.    With the funding support that Congress provided for fiscal year 2014 and fiscal year 2015, the Commission has made great progress towards creating a modern, user-friendly, and, most importantly, efficient system that can make the agency more productive. With the increased funding for fiscal year 2016, the FMC will be able to continue to--its multiyear enhancement of its IT systems to carry out its congressional mandate.    Mr. Chairman and members of the subcommittee, it is an honor to appear before the subcommittee, and I thank you for your support for the Commission throughout the years, and I am happy to answer any questions you may have.</t>
   </si>
   <si>
@@ -118,6 +148,12 @@
     <t>412621</t>
   </si>
   <si>
+    <t>Curbelo</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Curbelo. Thank you very much, Mr. Chairman. And I certainly share your concerns with regards to the administration's fiscal year 2016 budget.    Admiral Zukunft, welcome, and thank you very much for your testimony. I was in Coast Guard Station Key West on Wednesday of last week, and I was reminded of the importance and the unique challenges that the Coast Guard faces in the State of Florida.    I specifically wanted to ask you with regards to Reserve training, the President requested a $9.4 million decrease for the Reserve training account in fiscal year 2016. The budget also assumes enactment of a proposal made in the fiscal year 2015 request that would move 600 reservists from selected Reserve to inactive Ready Reserve, essentially making them unable to respond if the country needed them without significant lag time to train.    As you know, in Florida we had--and all along the gulf coast--the unfortunate incident of the Deepwater Horizon some 5 years ago. Considering the risk of terrorist attacks, of spills of national significance, do you think that these reduced numbers will allow the Coast Guard to effectively respond to these types of scenarios?</t>
   </si>
   <si>
@@ -139,6 +175,9 @@
     <t xml:space="preserve">    Mr. Garamendi. Mr. Chairman, I think you have started a very good practice. Those who--you and I are always here, and we have time for our questions. I would like to pass my time to Member Hahn.</t>
   </si>
   <si>
+    <t>Hahn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Hahn. Thank you, Mr. Chairman, Ranking Member. I think I am always here, too, but I will take the opportunity to ask my questions.    And I have several questions that if I--we need to do a second round, I want to do that, because I have some questions for the Coast Guard. But I wanted to start with Chairman Cordero, because you were really bringing it up about port congestion. And I will tell you. These last contract negotiations between the PMA and the ILWU were really long and arduous, and really had an impact, unfortunately, on so much in this country.    And before I ask you my question, I just want to say it--to me, and to, I think, the rest of the country, what happened was unfortunate, and had nothing to do with the actual negotiations going on in San Francisco. I actually would like to see the Federal Maritime Commission look into some of the unilateral actions by the Pacific Maritime Association, in terms of, you know, not allowing the workers to work in the evenings and on the weekends. I think that was really untenable and unfortunate.    And I would think the Coast Guard would also have--you know, would have had a fit. I can see, from my house, those--at one point there were 35 ships outside of Long Beach/Los Angeles breakwater. The Coast Guard base is right there. You know, that had to cause a lot of extra angst for the Coast Guard. So that would be something I would like to see, a full investigation on how, in 5 years from now, when we go back through these contract negotiations, we don't have that kind of, really, lockdown of our ports on the west coast.    But Honorable Cordero, I am very concerned about the congestion at the ports. As you said, the fact that this contract was agreed to and will be ratified, most likely, does not necessarily change the congestion on the docks. And we got a lot of big problems. Panama Canal expansion project is coming online next year. We are not going to stop that. But what can we do for our ports in this country to really address this congestion?    And I know you talked about it generally in your remarks, but could you be more specific on what is the Commission going to do to address the congestion on the docks, the last mile going in and out of our ports? It is a serious problem that could put us at a huge globally competitive disadvantage.    I said a lot; I hope there was a question in there.</t>
   </si>
   <si>
@@ -247,6 +286,12 @@
     <t>400090</t>
   </si>
   <si>
+    <t>Cummings</t>
+  </si>
+  <si>
+    <t>Elijah</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cummings. Let me--Mr. Chairman, I want to thank you for your comments that you just made.    And I hope that--it just reminds me, with regard to the Jones Act, I agree with you, Administrator. I mean we can't even--we--you know, it seems as if there is some real short-sightedness going on here, and that is a major problem. And I am hoping that the chairman will join all of us on this--particularly on this subcommittee, to try to make sure that the Congress understands the significance of the Jones Act, because I think a lot of our colleagues just do not understand how significant it is, and how America is falling behind. I used to say slowly, but surely. Now it is fast.    And that leads me to these questions. You know, as you know, our highest priority, Administrator, you know, was to try to make sure that we--well, when I go back and I think about my chairmanship of the subcommittee over the Coast Guard, you know, we spent a lot of time just trying to make sure that our ports were safe. And we put in a lot of measures to try to accomplish that. Where are we on that, the port--with regard to Coast Guard and ports?</t>
   </si>
   <si>
@@ -284,6 +329,12 @@
   </si>
   <si>
     <t>412516</t>
+  </si>
+  <si>
+    <t>Brownley</t>
+  </si>
+  <si>
+    <t>Julia</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Brownley. Thank you, Mr. Chairman. I appreciate it. I am a new member of the T&amp;I Committee, and very, very honored to be able to sit on this subcommittee. And I have a very specific question, probably for you, Admiral. And it is--my understanding that the Coast Guard air station currently located at Los Angeles International Airport will be relocating to Point Mugu Naval Air Station, part of Naval Base Ventura County, which is in my district. I am very excited about this news, very pleased about the move, and look forward to welcoming new personnel to Ventura County.    My first question is, if Congress does fail to fund DHS programs this week, would the shutdown affect the planning of this move, and would it impact it at all?</t>
@@ -965,7 +1016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H185"/>
+  <dimension ref="A1:I185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -973,7 +1024,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,4421 +1046,5180 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
       <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
       <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
       <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G62" t="s">
+        <v>90</v>
+      </c>
       <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>76</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G64" t="s">
+        <v>90</v>
+      </c>
       <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>76</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G66" t="s">
+        <v>90</v>
+      </c>
       <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G67" t="s">
+        <v>37</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>76</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G68" t="s">
+        <v>90</v>
+      </c>
       <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G69" t="s">
+        <v>37</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>76</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G70" t="s">
+        <v>90</v>
+      </c>
       <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G71" t="s">
+        <v>37</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>76</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G72" t="s">
+        <v>90</v>
+      </c>
       <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>89</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G74" t="s">
+        <v>105</v>
+      </c>
       <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>89</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G76" t="s">
+        <v>105</v>
+      </c>
       <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>89</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G78" t="s">
+        <v>105</v>
+      </c>
       <c r="H78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G79" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>89</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G80" t="s">
+        <v>105</v>
+      </c>
       <c r="H80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G81" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>89</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G82" t="s">
+        <v>105</v>
+      </c>
       <c r="H82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
       <c r="H83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
       <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G86" t="s">
+        <v>37</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
       <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G88" t="s">
+        <v>37</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
       <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G90" t="s">
+        <v>37</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>17</v>
+      </c>
       <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G92" t="s">
+        <v>37</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>17</v>
+      </c>
       <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
       <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G95" t="s">
+        <v>37</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
       <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G97" t="s">
+        <v>37</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
       <c r="H98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G99" t="s">
+        <v>37</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
       <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G101" t="s">
+        <v>27</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s">
+        <v>17</v>
+      </c>
       <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G103" t="s">
+        <v>27</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s">
+        <v>17</v>
+      </c>
       <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G105" t="s">
+        <v>27</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s">
+        <v>17</v>
+      </c>
       <c r="H106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G107" t="s">
+        <v>27</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s">
+        <v>17</v>
+      </c>
       <c r="H108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G109" t="s">
+        <v>27</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s">
+        <v>17</v>
+      </c>
       <c r="H110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I110" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G111" t="s">
+        <v>27</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s">
+        <v>17</v>
+      </c>
       <c r="H112" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I112" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G113" t="s">
+        <v>27</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s">
+        <v>17</v>
+      </c>
       <c r="H114" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I114" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G115" t="s">
+        <v>27</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G116" t="s">
+        <v>17</v>
+      </c>
       <c r="H116" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I116" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>19</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G118" t="s">
+        <v>27</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>19</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G119" t="s">
+        <v>27</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>19</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G120" t="s">
+        <v>27</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G121" t="s">
+        <v>27</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>19</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G122" t="s">
+        <v>27</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G123" t="s">
+        <v>37</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
       <c r="H124" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G125" t="s">
+        <v>53</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>19</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G126" t="s">
+        <v>27</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>19</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G127" t="s">
+        <v>53</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>19</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G128" t="s">
+        <v>27</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>19</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G129" t="s">
+        <v>53</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>19</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G130" t="s">
+        <v>27</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>19</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G131" t="s">
+        <v>53</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
       <c r="H132" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>13</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G133" t="s">
+        <v>17</v>
+      </c>
       <c r="H133" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I133" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
       <c r="H134" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>13</v>
+      </c>
       <c r="H135" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
       <c r="H136" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>13</v>
+      </c>
       <c r="H137" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>13</v>
+      </c>
       <c r="H138" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>13</v>
+      </c>
       <c r="H139" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
       <c r="H140" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G141" t="s">
+        <v>13</v>
+      </c>
       <c r="H141" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I141" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
       <c r="H142" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G143" t="s">
+        <v>13</v>
+      </c>
       <c r="H143" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I143" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>19</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G144" t="s">
+        <v>40</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>13</v>
+      </c>
       <c r="H145" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>19</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G146" t="s">
+        <v>40</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
       <c r="H147" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>19</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G148" t="s">
+        <v>40</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G149" t="s">
+        <v>13</v>
+      </c>
       <c r="H149" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I149" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>76</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G150" t="s">
+        <v>90</v>
+      </c>
       <c r="H150" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I150" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>19</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G151" t="s">
+        <v>27</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>76</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G152" t="s">
+        <v>90</v>
+      </c>
       <c r="H152" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I152" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>76</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G153" t="s">
+        <v>90</v>
+      </c>
       <c r="H153" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I153" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>76</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G154" t="s">
+        <v>90</v>
+      </c>
       <c r="H154" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I154" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G155" t="s">
+        <v>13</v>
+      </c>
       <c r="H155" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I155" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>19</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G156" t="s">
+        <v>27</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
       <c r="H157" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I157" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>19</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G158" t="s">
+        <v>27</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
       <c r="H159" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I159" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>19</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G160" t="s">
+        <v>27</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
+      </c>
       <c r="H161" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I161" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>19</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G162" t="s">
+        <v>27</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
       <c r="H163" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I163" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>19</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G164" t="s">
+        <v>27</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>11</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G165" t="s">
+        <v>13</v>
+      </c>
       <c r="H165" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I165" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>19</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G166" t="s">
+        <v>27</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>13</v>
+      </c>
       <c r="H167" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I167" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>19</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G168" t="s">
+        <v>27</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
       <c r="H169" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I169" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>19</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G170" t="s">
+        <v>27</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>11</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
       <c r="H171" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I171" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>19</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G172" t="s">
+        <v>27</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>11</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G173" t="s">
+        <v>13</v>
+      </c>
       <c r="H173" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I173" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>19</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G174" t="s">
+        <v>27</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G175" t="s">
+        <v>13</v>
+      </c>
       <c r="H175" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I175" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>19</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G176" t="s">
+        <v>27</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>11</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G177" t="s">
+        <v>13</v>
+      </c>
       <c r="H177" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I177" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>19</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G178" t="s">
+        <v>27</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>11</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
+      </c>
       <c r="H179" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>19</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G180" t="s">
+        <v>27</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>11</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G181" t="s">
+        <v>13</v>
+      </c>
       <c r="H181" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I181" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>19</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G182" t="s">
+        <v>27</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>11</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G183" t="s">
+        <v>13</v>
+      </c>
       <c r="H183" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I183" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>19</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G184" t="s">
+        <v>27</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G185" t="s">
+        <v>13</v>
+      </c>
       <c r="H185" t="s">
-        <v>200</v>
+        <v>14</v>
+      </c>
+      <c r="I185" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93531.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93531.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="223">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412283</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Hunter</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412382</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Garamendi</t>
   </si>
   <si>
@@ -82,6 +91,9 @@
     <t>400100</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>DeFazio</t>
   </si>
   <si>
@@ -146,6 +158,9 @@
   </si>
   <si>
     <t>412621</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Curbelo</t>
@@ -1016,7 +1031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I185"/>
+  <dimension ref="A1:J185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1024,7 +1039,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1049,5177 +1064,5568 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I24" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" t="s">
-        <v>53</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" t="s">
-        <v>53</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G39" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H39" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G41" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H41" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G43" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G45" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H45" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G47" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H47" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" t="s">
-        <v>27</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" t="s">
-        <v>37</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" t="s">
-        <v>27</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>31</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" t="s">
-        <v>27</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G62" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H62" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" t="s">
-        <v>27</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>31</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G64" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H64" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" t="s">
-        <v>27</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>31</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G66" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I66" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" t="s">
-        <v>37</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G68" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" t="s">
-        <v>37</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>41</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G70" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" t="s">
-        <v>37</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>41</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G72" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H72" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G74" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="H74" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I74" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>111</v>
+      </c>
+      <c r="J74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" t="s">
-        <v>27</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>31</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G76" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="H76" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I76" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>111</v>
+      </c>
+      <c r="J76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" t="s">
-        <v>27</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>31</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G78" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="H78" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I78" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" t="s">
-        <v>27</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>31</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G80" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="H80" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I80" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>111</v>
+      </c>
+      <c r="J80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" t="s">
-        <v>27</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>31</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G82" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I82" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>111</v>
+      </c>
+      <c r="J82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I85" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>26</v>
-      </c>
-      <c r="G86" t="s">
-        <v>37</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>41</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G87" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I87" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>26</v>
-      </c>
-      <c r="G88" t="s">
-        <v>37</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>41</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G89" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H89" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I89" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G90" t="s">
-        <v>37</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>41</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G91" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H91" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I91" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J91" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>26</v>
-      </c>
-      <c r="G92" t="s">
-        <v>37</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>41</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G93" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H93" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I93" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G94" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H94" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I94" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J94" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" t="s">
-        <v>37</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>41</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G96" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H96" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I96" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J96" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" t="s">
-        <v>37</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>41</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G98" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I98" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" t="s">
-        <v>37</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>41</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G100" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I100" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J100" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>26</v>
-      </c>
-      <c r="G101" t="s">
-        <v>27</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>31</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G102" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H102" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I102" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>26</v>
-      </c>
-      <c r="G103" t="s">
-        <v>27</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>31</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G104" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H104" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I104" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J104" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>26</v>
-      </c>
-      <c r="G105" t="s">
-        <v>27</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>31</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G106" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H106" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I106" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J106" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107" t="s">
-        <v>27</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>31</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G108" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H108" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I108" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J108" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>26</v>
-      </c>
-      <c r="G109" t="s">
-        <v>27</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>31</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G110" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H110" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I110" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J110" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111" t="s">
-        <v>27</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>31</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G112" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H112" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I112" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J112" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>26</v>
-      </c>
-      <c r="G113" t="s">
-        <v>27</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>31</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G114" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H114" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I114" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J114" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>26</v>
-      </c>
-      <c r="G115" t="s">
-        <v>27</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>31</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G116" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H116" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I116" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J116" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>26</v>
-      </c>
-      <c r="G118" t="s">
-        <v>27</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>31</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>26</v>
-      </c>
-      <c r="G119" t="s">
-        <v>27</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>31</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>26</v>
-      </c>
-      <c r="G120" t="s">
-        <v>27</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>31</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>26</v>
-      </c>
-      <c r="G121" t="s">
-        <v>27</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>31</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>26</v>
-      </c>
-      <c r="G122" t="s">
-        <v>27</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>31</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>26</v>
-      </c>
-      <c r="G123" t="s">
-        <v>37</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>41</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I124" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J124" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>26</v>
-      </c>
-      <c r="G125" t="s">
-        <v>53</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>58</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>26</v>
-      </c>
-      <c r="G126" t="s">
-        <v>27</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>31</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>26</v>
-      </c>
-      <c r="G127" t="s">
-        <v>53</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>58</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>26</v>
-      </c>
-      <c r="G128" t="s">
-        <v>27</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>31</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>26</v>
-      </c>
-      <c r="G129" t="s">
-        <v>53</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>58</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>26</v>
-      </c>
-      <c r="G130" t="s">
-        <v>27</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>31</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>26</v>
-      </c>
-      <c r="G131" t="s">
-        <v>53</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>58</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I132" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G133" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H133" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I133" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J133" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I134" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J134" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I135" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J135" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I136" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J136" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I137" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J137" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I138" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J138" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I139" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J139" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I140" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J140" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I141" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J141" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I142" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I143" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J143" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>26</v>
-      </c>
-      <c r="G144" t="s">
-        <v>40</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>44</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I145" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J145" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>26</v>
-      </c>
-      <c r="G146" t="s">
-        <v>40</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>44</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I147" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J147" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>26</v>
-      </c>
-      <c r="G148" t="s">
-        <v>40</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>44</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G149" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I149" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J149" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G150" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H150" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I150" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J150" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G151" t="s">
-        <v>27</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>31</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G152" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H152" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I152" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J152" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G153" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H153" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I153" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J153" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G154" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H154" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I154" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J154" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I155" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J155" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>26</v>
-      </c>
-      <c r="G156" t="s">
-        <v>27</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>31</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I157" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J157" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>26</v>
-      </c>
-      <c r="G158" t="s">
-        <v>27</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>31</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I159" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J159" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>26</v>
-      </c>
-      <c r="G160" t="s">
-        <v>27</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>31</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I161" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J161" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>26</v>
-      </c>
-      <c r="G162" t="s">
-        <v>27</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>31</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I163" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J163" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>26</v>
-      </c>
-      <c r="G164" t="s">
-        <v>27</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>31</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I165" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J165" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>26</v>
-      </c>
-      <c r="G166" t="s">
-        <v>27</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>31</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I167" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J167" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>26</v>
-      </c>
-      <c r="G168" t="s">
-        <v>27</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>31</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I169" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J169" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>26</v>
-      </c>
-      <c r="G170" t="s">
-        <v>27</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>31</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I171" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J171" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>26</v>
-      </c>
-      <c r="G172" t="s">
-        <v>27</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>31</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I173" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J173" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>26</v>
-      </c>
-      <c r="G174" t="s">
-        <v>27</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>31</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G175" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H175" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I175" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J175" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>26</v>
-      </c>
-      <c r="G176" t="s">
-        <v>27</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>31</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G177" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H177" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I177" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J177" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>26</v>
-      </c>
-      <c r="G178" t="s">
-        <v>27</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>31</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I179" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J179" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>26</v>
-      </c>
-      <c r="G180" t="s">
-        <v>27</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>31</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G181" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H181" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I181" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J181" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>26</v>
-      </c>
-      <c r="G182" t="s">
-        <v>27</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>31</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G183" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H183" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I183" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J183" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>26</v>
-      </c>
-      <c r="G184" t="s">
-        <v>27</v>
-      </c>
-      <c r="H184" t="s"/>
-      <c r="I184" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G184" t="s"/>
+      <c r="H184" t="s">
+        <v>31</v>
+      </c>
+      <c r="I184" t="s"/>
+      <c r="J184" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G185" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H185" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I185" t="s">
-        <v>217</v>
+        <v>16</v>
+      </c>
+      <c r="J185" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
